--- a/main code/data/sports.xlsx
+++ b/main code/data/sports.xlsx
@@ -448,2160 +448,2160 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>'베니테스와 불화' 디뉴를 향한 뜨거운 관심…첼시도 참전</t>
+          <t>BVB, '괴물 ST' 붙잡기 위해 '역대급 연봉' 준비...레반도프스키 뛰어 넘는다</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021.12.28 15:41</t>
+          <t>2021.12.29 16:38</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>아우베스, 코로나 감염에도 농담 "내가 긍정적(positive)이라 양성(positive)"</t>
+          <t>갈락티코-어벤져스 '어셈블'...아디다스 콜라보 컬렉션 출시한다</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021.12.28 15:39</t>
+          <t>2021.12.29 16:36</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>'개나 먹어라'…SON이 당한 온라인 인종차별, 영국 정부 처벌 받는다</t>
+          <t>'영입 소식 없고 방출설만'...쓸쓸한 겨울 보낼 듯한 이강인의 마요르카</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021.12.28 15:38</t>
+          <t>2021.12.29 16:36</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>'감독과 불화' 에버튼 풀백...세리에A로 임대?</t>
+          <t>'돌아왔나?' 케인, 2021년 시작과 똑같은 3경기 연속골로 한 해 마무리</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021.12.28 15:37</t>
+          <t>2021.12.29 16:36</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>유망주 서민국, 다비드 비야의 뉴욕 퀸즈보로와 계약</t>
+          <t>'반등' 로저스 "영웅은 선수들"</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021.12.28 15:33</t>
+          <t>2021.12.29 16:33</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>음바페 재계약에 '총력' 다한다...PSG, 1월 매각 명단 공개</t>
+          <t>콘테 '원픽' 나폴리 리빙레전드 '미국행' 유력…5년간 775억+α 파격 조건</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021.12.28 15:31</t>
+          <t>2021.12.29 16:22</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>캐러거, 맨유 졸전에 과거 소환..."네빌, 너도 엉망이었어"</t>
+          <t>[epl.told] '7G 무패 신기록' 콘테 감독, 살아나는 손흥민-케인 '듀오'</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021.12.28 15:27</t>
+          <t>2021.12.29 16:20</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>맨유, 강등권 뉴캐슬 상대 '졸전'...랑닉 "경기를 전혀 지배하지 못했다"</t>
+          <t>‘이적료 0원 대신 빅이어’ 음바페, “PSG 소속으로 레알 꺾겠다”</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2021.12.28 15:23</t>
+          <t>2021.12.29 16:16</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>'740억원' 토레스 이적료, 내년 여름 첫 정산…총 4회 분할 지급</t>
+          <t>"울브스에 큰 공헌"...황희찬, 토미야스와 'EPL 이적생 베스트 11' 선정</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2021.12.28 15:23</t>
+          <t>2021.12.29 16:16</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>'구단 합의-메디컬 완료'인데...페란 바르사 이적 발표 미뤄졌다...이유는?</t>
+          <t>"호날두땜에 겁 먹잖아!"...A.빌라 '전설'의 주장</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2021.12.28 15:20</t>
+          <t>2021.12.29 16:05</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>"콘테보단 포체티노"…맨유 레전드의 '일편단심'</t>
+          <t>바르사에 토레스 빼앗긴 맨시티, 겨울 이적시장서 케인 영입 '재도전'</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2021.12.28 15:17</t>
+          <t>2021.12.29 16:04</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>승리 절실한 투헬...캉테는 뛸 수 있을까</t>
+          <t>맨시티-리버풀 '승점 6점 차'...반 다이크, "아직 12월, 시즌은 길어"</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2021.12.28 15:12</t>
+          <t>2021.12.29 16:04</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>14경기 16골...도르트문트, 득점 2위 공격수 노린다</t>
+          <t>황희찬, PL 최고의 영입선수 선정…"팀에 중요한 기여"</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2021.12.28 15:10</t>
+          <t>2021.12.29 16:01</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>첼시 풀백 원하는 레알, 최악의 먹튀 친정에 돌려보낼 궁리중</t>
+          <t>전 리버풀 스타도 손흥민 데려와라! “리버풀 스타일에 딱이야”</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2021.12.28 15:08</t>
+          <t>2021.12.29 16:00</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>'무리뉴와 함께 우승' 6위지만 희망에 찬 로마</t>
+          <t>[스포츠타임]'명의' 콘테, 토트넘을 살리고 있다</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2021.12.28 15:06</t>
+          <t>2021.12.29 15:59</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>관중 난동에 중단된 프랑스컵 축구 경기, '둘 다 탈락'</t>
+          <t>우려했던 일 터졌다...호날두, 랑닉 체제에서 행복하지 않아</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2021.12.28 15:04</t>
+          <t>2021.12.29 15:59</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>"토트넘, EPL 4위 경쟁·챔스 진출 가능할 것"… 캐러거, 콘테 감독 극찬</t>
+          <t>슈마이켈 '슈퍼세이브'에 막힌 살라...리그서 4년 만에 PK 실축</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2021.12.28 15:03</t>
+          <t>2021.12.29 15:54</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>연일 몸값 뛰는 손흥민의 '슈퍼카'…라페라리까지</t>
+          <t>[스포츠타임] ‘PK+퇴장 유도’ 손흥민 분투했으나... 한 명 적은 사우스햄튼에 비긴 토트넘</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2021.12.28 15:02</t>
+          <t>2021.12.29 15:53</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>"블라호비치, 토트넘이 딱이야"...이적시장 전문가 추천</t>
+          <t>콘테, 토트넘에 영입 요청...'스트라이커, 윙백, 센터백 사주세요'</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2021.12.28 15:01</t>
+          <t>2021.12.29 15:51</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>콘테 신드롬, 단 10경기로 '토트넘 올타임 No.1' 평가! SON 챔스 복귀 임박</t>
+          <t>'PK 유도' 손흥민, 시즌 8번째 킹오브더매치…살라 턱밑까지</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2021.12.28 14:50</t>
+          <t>2021.12.29 15:51</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>관중 난동에 중단된 프랑스컵 축구 경기, 결론은 '둘 다 탈락'</t>
+          <t>토트넘-아스널 ‘TOP 4’ 힘들다더니… 캐러거가 틀렸다</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2021.12.28 14:46</t>
+          <t>2021.12.29 15:50</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>'졸전' 호날두, 종료 후 곧바로 라커룸 행...네빌 "팬들한테서 도망치지 마"</t>
+          <t>"윌슨 대체자 찾아라"...뉴캐슬, 영입 후보 '5명'</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2021.12.28 14:44</t>
+          <t>2021.12.29 15:43</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>뉴캐슬 전설, 프레드의 기록에 "같은 경기?"</t>
+          <t>"살라·스미스로우 뜨고, 맨유 기대 이하일 듯" 적중한 캐러거의 시즌 전 예측</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2021.12.28 14:37</t>
+          <t>2021.12.29 15:42</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>[김남구의 유럽통신] 다시 시작한 황의조 이적설... “20억 제안 있으면 거절 못해”</t>
+          <t>‘맨유 8년’ 마타, 쫓겨나듯 스페인 복귀설...바르사 외 1팀 접촉</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2021.12.28 14:33</t>
+          <t>2021.12.29 15:39</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>홀란드, 내년 여름 '레알행' 원한다...EPL 도전에는 미온적 반응</t>
+          <t>골 없어도 여전한 손흥민의 하드 캐리</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2021.12.28 14:31</t>
+          <t>2021.12.29 15:36</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>맨유 어쩌나...'포그바 대체자'로 점찍었던 세리에 MF, 결국 잔류</t>
+          <t>랑닉 와도 에이스는 데 헤아→의존도 압도적...'맨유의 암울한 현실'</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2021.12.28 14:31</t>
+          <t>2021.12.29 15:26</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>바이에른 뮌헨, 최저임금법 위반 혐의 (獨 스카이스포츠)</t>
+          <t>'부진의 늪' 리즈, '또' 나폴리 플레이메이커 노린다</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2021.12.28 14:18</t>
+          <t>2021.12.29 15:20</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>'허락까지 받았다"… 아스널, 쿠티뉴 영입 적극 추진</t>
+          <t>"이게 왜 반칙이야?"...前심판도 당황한 토트넘 득점 취소 논란</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2021.12.28 14:15</t>
+          <t>2021.12.29 15:17</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>토트넘전 앞둔 적장, “손흥민-케인-모우라 PL 최고의 조합” 극찬</t>
+          <t>음바페, 월드컵 2년 주기 개최 반대 “4년마다 열려 특별해</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2021.12.28 14:11</t>
+          <t>2021.12.29 15:09</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>'활약에 비해 과소평가' 손흥민, EPL 최고의 게임체인저 TOP5</t>
+          <t>‘퇴장&amp;PK 유도’ 손흥민, 5G 연속 골은 없었지만 토트넘 에이스는 빛났다!</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2021.12.28 14:05</t>
+          <t>2021.12.29 15:06</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>레알, 황금기 멤버였던 3인과 작별 눈앞</t>
+          <t>황희찬, 호날두와 함께 EPL 시즌 최고의 영입 베스트11 선정</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2021.12.28 14:02</t>
+          <t>2021.12.29 15:03</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>[공식발표] 맨유, 린델로프 코로나 양성...심장 문제는 회복</t>
+          <t>"첼시로 돌아가!"...5연패에 '분노' 노리치 팬들, 임대 MF에 화풀이</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2021.12.28 14:01</t>
+          <t>2021.12.29 14:59</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>"일단 체력이 문제"… 랑닉, 포그바에 충고</t>
+          <t>3년 만에 '36배↑'...몸값 상승폭도 남다른 '빅클럽 타깃' 세르비아 폭격기</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2021.12.28 13:58</t>
+          <t>2021.12.29 14:56</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>레길론, 손흥민 사랑해도 너무 사랑하네...훈련장서도 딱 달라붙었다</t>
+          <t>클롭의 뼈있는 한마디 "오늘처럼 하면 맨시티 추격 꿈도 못 꿔"</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2021.12.28 13:51</t>
+          <t>2021.12.29 14:44</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>69골...레반도프스키, 2021년 최다 득점자</t>
+          <t>무득점 5연패…'EPL 꼴찌' 노리치의 끔찍했던 한 달</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2021.12.28 13:48</t>
+          <t>2021.12.29 14:41</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>맨유 구하고 바르셀로나에 어필도 성공…"득점력 인정"</t>
+          <t>손흥민이 '맨시티 방출 후보' 스털링보다 낮다?...英매체 순위 논란</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2021.12.28 13:35</t>
+          <t>2021.12.29 14:31</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>"형과 싸워 4시간 동안 트래핑"...손흥민의 어린 시절</t>
+          <t>IFFHS, '남미 올해의 팀' 선정...아르헨티나, 5명 '최다'</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>2021.12.28 13:33</t>
+          <t>2021.12.29 14:24</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>로저스의 한숨, "미처 회복도 안 됐다, 어처구니없는 스케줄"</t>
+          <t>정우영 하프발리 골, 프라이부르크 시즌 전반기 최고의 골 선정</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>2021.12.28 13:31</t>
+          <t>2021.12.29 14:23</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>'17경기-0골' 치명적 약점의 근육맨, 발렌시아 딜 가능성 제기</t>
+          <t>'이게 파울이라고?'… 토트넘 vs 사우샘프턴 무승부에 VAR 논란</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>2021.12.28 13:27</t>
+          <t>2021.12.29 14:21</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>'독일 최강' 바이에른의 민낯?…유스 센터 최저임금법 위반 혐의 조사</t>
+          <t>‘애처가’ 메시, 가족과 달콤한 연말휴가</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>2021.12.28 13:26</t>
+          <t>2021.12.29 14:21</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>'소튼 킬러' 손흥민, 사우스햄튼전 13G 11골…英 매체 조명</t>
+          <t>‘1~3위가 먹튀’ 역대 바르사 이적료 톱10 공개… 토레스는 몇 위?</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>2021.12.28 13:21</t>
+          <t>2021.12.29 14:21</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>울버햄프턴 '황소' 황희찬 햄스트링 부상…내년 2월 복귀</t>
+          <t>'토레스' 영입한 바르셀로나, 첼시 10년 책임진 '뒷문' 노린다</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>2021.12.28 13:20</t>
+          <t>2021.12.29 14:16</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>'방출 후보' 알리, 대망신...'19위' 뉴캐슬도 영입 거절</t>
+          <t>'위대한 퇴장' 앞둔 마르셀루의 '마지막 도전' (西 매체)</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>2021.12.28 13:16</t>
+          <t>2021.12.29 14:15</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>네빌, 랑닉 비판 "지금 쓰는 전술 포기해"</t>
+          <t>득점왕-도움왕 동시 석권?…살라, 케인 기록 도전</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>2021.12.28 13:01</t>
+          <t>2021.12.29 14:11</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>‘뉴캐슬전 부진’ 호날두, 英 매체 “경기 전 헛발질 실전에서 그대로”</t>
+          <t>뉴캐슬 산 사우디 구단주, 명문 인테르 인수도 눈앞… 1조 원에 인수 전망</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>2021.12.28 12:47</t>
+          <t>2021.12.29 14:07</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>'손흥민 제외'...네빌·캐러거 반환점 돈 EPL 베스트 11 선정</t>
+          <t>레알, '음-홀-비' 라인 구축한다…갈락티코 3기 시작하나?</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>2021.12.28 12:41</t>
+          <t>2021.12.29 14:01</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>"아스널보다 토트넘"…세리에A 특급 공격수, SON 동료되나?</t>
+          <t>"제발 알리랑 도허티 좀 팔아"...토트넘 팬심 또 폭발</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>2021.12.28 12:37</t>
+          <t>2021.12.29 14:01</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>맨유 랄프 랑닉의 첫번째 영입 픽, 울버햄튼 패스마스터 노린다</t>
+          <t>'4골 넣었는데 1골만 인정...VAR 탓' 토트넘 두둔하는 英 매체</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>2021.12.28 12:31</t>
+          <t>2021.12.29 13:58</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>'충격' 유벤투스, 더 리흐트 판다…토트넘 1000억 영입 참전</t>
+          <t>‘5경기 연속골’ 실패에도… 팀 위기에서 구한 손흥민</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>2021.12.28 12:27</t>
+          <t>2021.12.29 13:52</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>"호날두 제발 와 줘" 뉴캐슬 팬이 직접 구애, '초갑부 구단'의 '근자감'</t>
+          <t>손흥민, 여전한 멕시코 인기…“토트넘 역대 최고 영입”</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>2021.12.28 12:13</t>
+          <t>2021.12.29 13:50</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>'아자르도 줄게'… 레알, 리스 제임스 영입 추진</t>
+          <t>'3경기 연속골' 해리 케인...다시 떠오른 맨시티 이적설</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>2021.12.28 12:13</t>
+          <t>2021.12.29 13:48</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>'내 패스가 끔찍해?'…토트넘 핵심 MF, 콘테 부임 후 비난 폭발</t>
+          <t>[EPL POINT] 맨시티전 6실점 대패-리버풀엔 1-0 승...'두 얼굴의 레스터'</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>2021.12.28 12:12</t>
+          <t>2021.12.29 13:41</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>"형이랑 싸워서 아버지한테 벌 받았었죠"...손흥민의 유쾌한 고백</t>
+          <t>맨유, 세비야의 마르시알 임대 제의 거절...'주급 전액 책임져'</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>2021.12.28 12:11</t>
+          <t>2021.12.29 13:35</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>레알, 포그바 충격의 손절 선언...이제 그는 어디로 가나</t>
+          <t>레알의 리빙 레전드 수비수, 내년 여름 은퇴 고려</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>2021.12.28 12:08</t>
+          <t>2021.12.29 13:27</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>루카쿠 팔아치웠던 인테르의 중국 구단주 '빚더미 문제 개선 중'</t>
+          <t>음바페 선언..."1월에 레알 안 간다"</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>2021.12.28 12:06</t>
+          <t>2021.12.29 13:21</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>"이거 맞아?"...이론상 '환상 듀오 CB', 랑닉의 골칫거리 전락 (英 매체)</t>
+          <t>득점 기회 여러 번 놓친 토트넘, 콘테 "선수들 피로감 쌓였어"</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>2021.12.28 12:05</t>
+          <t>2021.12.29 13:16</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>사우샘프턴 킬러 SON 있음에… 英 매체 “토트넘 1-0 승 예상”</t>
+          <t>페란 토레스 품은 사비...맨시티 '소년 가장'도 눈독</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>2021.12.28 12:03</t>
+          <t>2021.12.29 13:12</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>감독과 사이 벌어진 디뉴, 다음달 뉴캐슬행 임박</t>
+          <t>“수적 우위 살렸어야” 토트넘 콘테 감독 ‘무승부에 아쉬움’</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>2021.12.28 12:00</t>
+          <t>2021.12.29 13:12</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>강등권에 힘 못 쓰는 맨유…랑닉이 말하는 이유는?</t>
+          <t>'맨유에서 투명인간 신세' 이 선수, 레알 소시에다드가 눈독 들였다</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>2021.12.28 11:47</t>
+          <t>2021.12.29 13:02</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>'코로나 확진' 다니 알베스, 복귀전은 다음 기회로</t>
+          <t>'740억' 토레스, 역대 바르사 이적료 9위...'1~3위는 암울하네'</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>2021.12.28 11:46</t>
+          <t>2021.12.29 13:01</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>'입지 불안' 바이날둠, 반 시즌 만에 PSG 탈출? 뉴캐슬행 거론</t>
+          <t>무뚝뚝한 콘테 "토트넘 신기록? 오늘 처음 알았다"</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>2021.12.28 11:43</t>
+          <t>2021.12.29 13:00</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>[영상] 손흥민 뛰는 프리미어리그 '코로나 비상'…일주일 새 103명 확진</t>
+          <t>머리 심고 '풍성'해진 아스날 DF, "정신건강 되찾았다"</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>2021.12.28 11:42</t>
+          <t>2021.12.29 12:43</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>음바페·레반도프스키, 월드컵 2년 주기 개최 반대</t>
+          <t>황희찬, 호날두·토미야스와 ‘EPL 최고의 영입’ 베스트11 선정</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>2021.12.28 11:41</t>
+          <t>2021.12.29 12:41</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>레알 가고 싶은 '괴물'...에이전트에게 강력 요청</t>
+          <t>"PK 유도 말고는 한 게 없다"...英매체들, 손흥민 향해 일제히 혹평</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>2021.12.28 11:41</t>
+          <t>2021.12.29 12:31</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>'졸전' 호날두, 또 라커룸 직행...네빌 "달아나지 좀 마!"</t>
+          <t>맨유 전설 네빌 "손흥민, 전반기 EPL 최고 아니다"</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>2021.12.28 11:41</t>
+          <t>2021.12.29 12:30</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>[EPL] '기부왕' 맨유, 강등권 뉴캐슬에 승점 기부</t>
+          <t>"충성심 보이겠다"… 마르셀루, 레알서 은퇴 고려?</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>2021.12.28 11:40</t>
+          <t>2021.12.29 12:15</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>코로나19 직격탄→일주일 확진자 103명→15G 연기, 위기의 EPL</t>
+          <t>마라도나 별세 1년 만에 막내동생 우고도 심장마비로 세상 떠나</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>2021.12.28 11:39</t>
+          <t>2021.12.29 12:10</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>'폭력적인 파울' 호날두, 퇴장 면했지만 비난 쇄도</t>
+          <t>EPL 에버턴-뉴캐슬전, 코로나19 탓에 연기… 12월 들어 16번째</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>2021.12.28 11:19</t>
+          <t>2021.12.29 12:01</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>산투와 불협화음→콘테와 찰떡궁합...토트넘, 케인과 재계약 자신</t>
+          <t>이게 무슨 망언인가...자카 "원하는 대로 하면 3경기마다 퇴장 받을 걸?"</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>2021.12.28 11:17</t>
+          <t>2021.12.29 12:01</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>'로번'도 제쳤다…첼시 유망주, 클럽 역대 최연소 10도움 기록</t>
+          <t>블라호비치 두고 토트넘·맨유·맨시티 3파전</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>2021.12.28 11:17</t>
+          <t>2021.12.29 12:00</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>EPL 일주일 사이 103명 확진…12월에만 15경기 취소</t>
+          <t>'4경기 연속골' 손흥민, EPL 파워랭킹 2위로 2계단 상승... 1위는?</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>2021.12.28 11:16</t>
+          <t>2021.12.29 11:53</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>[오피셜] PSG 주전 경쟁 밀린 미드필더, 소시에다드 임대 이적</t>
+          <t>FC바르셀로나, 이적료 738억원에 페란 토레스 영입</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>2021.12.28 11:15</t>
+          <t>2021.12.29 11:52</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>'최다 연속 골&amp;최다 득점' 손-케 듀오, 사우샘프턴 사냥 준비</t>
+          <t>R마드리드 출신 호날두, 맞수 바르사 이적 원한다?</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>2021.12.28 11:13</t>
+          <t>2021.12.29 11:51</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>"우리 팀 핵심 선수들!" 콘테, 손흥민‧케인‧모우라 '3톱' 중요성 강조</t>
+          <t>PK 얻어낸 SON… 시즌 8번째 ‘킹오브더매치’</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>2021.12.28 11:13</t>
+          <t>2021.12.29 11:51</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>‘자동차 컬렉터’ SON… 왜 검정 페라리를 몰까?</t>
+          <t>PK 유도한 손흥민, 시즌 8번째 ‘킹 오브 더 매치’ 뽑혀</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>2021.12.28 11:11</t>
+          <t>2021.12.29 11:38</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>"늙은 스타 호날두는 블랙홀, 헌신적인 카바니 기용 필요" 英매체 경고</t>
+          <t>소튼 감독 "수준 높은 손흥민에게 태클하지 말아야 했다"</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>2021.12.28 11:11</t>
+          <t>2021.12.29 11:33</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>"손흥민-케인-모우라, EPL 최강이다"...적장마저 찬사</t>
+          <t>'콘테 감독님 알리보다 제가 낫죠?'...가치 입증한 토트넘 잉여 MF</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>2021.12.28 11:11</t>
+          <t>2021.12.29 11:31</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>"정신적 문제없다"…랑닉, 맨유 레전드 비판에 '맞불'</t>
+          <t>[분데스] 도르트문트 독주 막아낸 아우크스부르크, 왜?</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>2021.12.28 11:11</t>
+          <t>2021.12.29 11:31</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>황희찬, 내년 2월 복귀 예정..."가장 좌절스러운 부분"</t>
+          <t>'10일 285분' SON 지쳤다…콘테 "일정 너무 빡빡해"</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>2021.12.28 11:07</t>
+          <t>2021.12.29 11:30</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>페란, 정든 고향 발렌시아에서 훈련 중… 바르셀로나 이적 초읽기</t>
+          <t>'핫매물' 블라호비치, EPL 선호..."아스널은 아냐"</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>2021.12.28 11:06</t>
+          <t>2021.12.29 11:22</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>프랑스, 코로나 확진자 '10만'...리그1 "관중 축소"</t>
+          <t>바르사 유니폼 입고… 토레스, 이적하자마자 훈련 돌입</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>2021.12.28 11:04</t>
+          <t>2021.12.29 11:16</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>호날두 비판한 네빌 "팬들 좀 챙겨…어린 선수들이 보고 배우잖아"</t>
+          <t>호나우지뉴 "PSG, 세계 최고 구단".. "음바페, 잘 생각해"</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>2021.12.28 11:01</t>
+          <t>2021.12.29 11:13</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>"호날두, 뉴캐슬로 오세요"… 영입 나선 '귀여운' 꼬마 팬</t>
+          <t>콘테, 토트넘 부임 후 '최장 기간 무패' 대기록 작성</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>2021.12.28 10:57</t>
+          <t>2021.12.29 11:07</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>'햄스트링 부상' 황희찬, 내년 2월 복귀 예상</t>
+          <t>맨유 벌써 불화설...훈련장 분위기↓+선수단 사이 파벌 나뉘어</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>2021.12.28 10:56</t>
+          <t>2021.12.29 11:06</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>손흥민 '박싱데이' 2탄 사우샘프턴전, EPL 5경기 연속골 도전!</t>
+          <t>음바페 "자식 생기면 메시와 함께 뛰었다고 자랑해야지"</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>2021.12.28 10:50</t>
+          <t>2021.12.29 10:56</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>네빌, 팬에게 인사 안한 호날두 맹비난…"또 도망쳤어"</t>
+          <t>'칠웰 시즌 아웃' 첼시, 1월 에버턴 수비수 영입으로 긴급 수혈 한다</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>2021.12.28 10:45</t>
+          <t>2021.12.29 10:55</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>손흥민, 사우샘프턴 상대로 생애 첫 5경기 연속골에 도전</t>
+          <t>패배에 낙담한 리버풀 팬들..."맨시티 우승 축하해"</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>2021.12.28 10:42</t>
+          <t>2021.12.29 10:55</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>당당한 즐라탄, "발롱도르? 좋지! 하지만 나는 이미 최고인 걸"</t>
+          <t>맨유 전설 "호날두 혼자서는 안 돼"…파트너로 카바니 우뚝</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>2021.12.28 10:41</t>
+          <t>2021.12.29 10:52</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>설레는 CB 영입 후보..."토트넘, 더 브리 외 2명 관심"</t>
+          <t>"나 데려가"… 호날두, 바르셀로나에 '셀프 영입 홍보'?</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>2021.12.28 10:41</t>
+          <t>2021.12.29 10:45</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>'레드킥' 호날두 또 비매너, '왜 레드카드 안 주나' 비난 폭발</t>
+          <t>'토트넘 대체불가인데'...캐러거-네빌, 손흥민 전반기 베스트 11 제외</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>2021.12.28 10:37</t>
+          <t>2021.12.29 10:41</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>콘테 잘 데려온 토트넘… 퍼거슨-클롭보다 리그 승률 능가</t>
+          <t>EPL 31일 에버턴-뉴캐슬전, 코로나19로 연기</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>2021.12.28 10:36</t>
+          <t>2021.12.29 10:40</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>카바니 동점골… 맨체스터 유나이티드, 뉴캐슬과 무승부</t>
+          <t>이강인 소속팀 마요르카, 코로나19 확진자 4명 발생</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>2021.12.28 10:31</t>
+          <t>2021.12.29 10:28</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>'사우샘프턴 저승사자' 손흥민 집중 조명… 英 매체, "이번 경기 골 넣는 법 확실히 알지"</t>
+          <t>바르셀로나행 토레스, 현 바이아웃 금액 '세계 1위'… 1조3500억원</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>2021.12.28 10:31</t>
+          <t>2021.12.29 10:27</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>프레이저 다리 부술 뻔한 호날두, 英 매체 "한두 번도 아니고…"</t>
+          <t>손흥민, PK유도 연속골 멈춰 토트넘은 무승부</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>2021.12.28 10:28</t>
+          <t>2021.12.29 10:21</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>'먹튀' 논란 쿠티뉴, EPL 복귀?...에이전트 '런던행'</t>
+          <t>"이런 식으로 하면 맨시티 못 따라잡는다"...클롭 분노</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>2021.12.28 10:27</t>
+          <t>2021.12.29 10:16</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>손흥민, 29일 사우샘프턴전 출격 대기 ‘5G 연속 골’ 도전</t>
+          <t>광란의 12월 보낸 손흥민, 이달의 선수 수상 가능성은?</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>2021.12.28 10:27</t>
+          <t>2021.12.29 10:13</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>"팬 고마운 줄 모르네"… 네빌, '침묵 터널행' 호날두 지적</t>
+          <t>52세의 마라도나 동생, 형 죽은 지 1년 만에 심장마비로 숨져</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>2021.12.28 10:26</t>
+          <t>2021.12.29 10:11</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>바란 '연약한 겁쟁이' '허둥지둥'…8000만 파운드 어디로, 맨유 혹평</t>
+          <t>'형 사망 1년만에' 우고 마라도나, 심장마비로 숨져… 향년 52세</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>2021.12.28 10:19</t>
+          <t>2021.12.29 10:10</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>레반도프스키, 2021 글로브 사커 어워즈 '마라도나상' 등 '2관왕'</t>
+          <t>손흥민, 5경기 연속골 불발…PK 유도로 1-1 무승부 발판</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>2021.12.28 10:18</t>
+          <t>2021.12.29 10:10</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>콘테의 토트넘, 활동량·실점 허용 20th→1st...캐러거 "4위권 진입도 가능해!"</t>
+          <t>손흥민, 골 없어도 '킹 오브 더 매치'…시즌 8번째 선정</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>2021.12.28 10:16</t>
+          <t>2021.12.29 10:09</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>쿠티뉴, 바르사 떠나 아스널행 가능성...'주급 지급 비율'이 관건</t>
+          <t>'PK를 만들었지만' 손흥민, 5경기 연속골은 불발…PK 유도로 1-1 무승부</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>2021.12.28 10:14</t>
+          <t>2021.12.29 10:06</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>'재계약 거부' 케인, '콘테 효과' 토트넘과 재계약 고려하나</t>
+          <t>'맨유 레전드' 네빌, "다음 시즌 감독은 포체티노가 적합"</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>2021.12.28 10:10</t>
+          <t>2021.12.29 10:05</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>뮌헨 레전드, 레반도프스키 극찬..."정계에 진출해도 잘할 거야"</t>
+          <t>호날두 아니다… “진짜 강해” 토트넘 신입생이 뽑은 가장 어려운 상대는?</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>2021.12.28 10:09</t>
+          <t>2021.12.29 10:03</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>英 레전드 '감동'시킨 축구팬...'유로 준결승 관전 포기→줄기세포 기증 '선행'</t>
+          <t>"홀란드, PL로 향하면 '280골' 시어러 기록 넘을 것"…조 콜의 극찬</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>2021.12.28 10:07</t>
+          <t>2021.12.29 10:01</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>손흥민, '리그 5경기 연속 골 도전'...S.햄튼 제물로 개인 최다 기록 세울까</t>
+          <t>공격수 시장 가치 '세계 10위' 손흥민… '이 선수'들보다는 낮다고?</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>2021.12.28 10:02</t>
+          <t>2021.12.29 09:58</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>손흥민, 29일 사상 첫 리그 5경기 연속골 도전</t>
+          <t>'황희찬 동료' 조세 사, 시즌 전반기 베스트 GK 2위...1위는?</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>2021.12.28 10:01</t>
+          <t>2021.12.29 09:53</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>리버풀 레전드 SON 극찬, “케인-모우라와 함께 엄청난 3인방”</t>
+          <t>손흥민도 당한 인종차별... 앞으론 축구장 10년간 '출입 금지'</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>2021.12.28 10:00</t>
+          <t>2021.12.29 09:52</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>"월드컵은 4년마다 열리기 때문에 특별하다"...음바페·레반도프스키, 월드컵 축구 2년 주기 개최에 반대</t>
+          <t>부상 불사한 '살신성인' 수비...친정팀 울린 '토트넘 유스 출신' 소튼 RB</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>2021.12.28 09:56</t>
+          <t>2021.12.29 09:51</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>'어서와'… 리버풀, 반 다이크 등 '4인방' 코로나19서 회복</t>
+          <t>에릭 다이어, 토트넘 소속 300경기 출전</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>2021.12.28 09:52</t>
+          <t>2021.12.29 09:49</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>경고에 그친 호날두...뉴캐슬 팬들 "어떻게 해야 퇴장일까"</t>
+          <t>‘PK 유도’ 손흥민, ‘8번째 킹 오브 더 매치’ EPL 전체 2위</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>2021.12.28 09:51</t>
+          <t>2021.12.29 09:49</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>EPL, 코로나19 '최다 기록 경신'… 90→103명</t>
+          <t>이강인도?… 마요르카 선수·경영진 4명 코로나 확진</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>2021.12.28 09:48</t>
+          <t>2021.12.29 09:39</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>클롭 감독 "박싱데이? 코로나 앞에선 무의미한 전통"</t>
+          <t>리버풀, 레스터에 0-1 패배…선두 맨시티와 승점 6점 차</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>2021.12.28 09:44</t>
+          <t>2021.12.29 09:38</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>"변명 싫은데 선수 절반이 코로나서 회복 중"...매과이어 졸전 해명</t>
+          <t>[EPL] 2년째 '연말 부진' 리버풀, 우승은 '다음 기회에?'</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>2021.12.28 09:44</t>
+          <t>2021.12.29 09:37</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>음바페·레반도프스키, 월드컵 축구 2년 주기 개최에 반대</t>
+          <t>바르셀로나, 맨시티서 페란 토레스 영입…바이아웃 1조3500억</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>2021.12.28 09:43</t>
+          <t>2021.12.29 09:36</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>콘테 체제에서 '불붙은' 손흥민, 5G 연속골 성공시킬까?</t>
+          <t>'SON에게 태클→PK 허용 후 퇴장' 살리수, "무모한 도전이었다"</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>2021.12.28 09:42</t>
+          <t>2021.12.29 09:35</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>뉴캐슬전 비긴 뒤 맥과이어의 분석, "시즌 중 16일 휴식, 도움 안 된다"</t>
+          <t>음바페·포그바 등… 英매체, FA 앞둔 베스트11 명단 공개</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>2021.12.28 09:41</t>
+          <t>2021.12.29 09:34</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>'폼이 다 녹슬었네.' 복귀전 치른 맨유 바란, 어이없는 실수에 팬 비난 폭발</t>
+          <t>손흥민, 골 없어도 '킹 오브 더 매치'…시즌 8번째 선정</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>2021.12.28 09:40</t>
+          <t>2021.12.29 09:31</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>‘콘테체제서 골폭풍’ 손흥민, 개인 최다 5경기 연속골 사냥</t>
+          <t>'충격 이적' 첼시 이끌던 주장, 바르셀로나행 이적 합의…사비가 원해</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>2021.12.28 09:40</t>
+          <t>2021.12.29 09:30</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>음바페-레반도프스키, "월드컵 일상이 돼서는 안 돼"...'월드컵 2년 주기 반대'</t>
+          <t>스파이더맨 구애 받은 음바페, "내 인생에서 토트넘에서 뛸 일은 없을 것"</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>2021.12.28 09:39</t>
+          <t>2021.12.29 09:28</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>英매체 "겸손한 손흥민 슈퍼카 5대? 놀랍다" 차값만 총 23억원</t>
+          <t>손흥민, 연속골 놓쳤어도 ‘킹 오브 더 매치’ 선정…시즌 8번째</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>2021.12.28 09:31</t>
+          <t>2021.12.29 09:27</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>쭉 가기로 한 EPL '일주일 코로나 또 최다'</t>
+          <t>손흥민, PK 유도 ‘무승부 발판’… 5G 연속 골은 실패</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>2021.12.28 09:26</t>
+          <t>2021.12.29 09:26</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>황희찬, 햄스트링 부상으로 전력 이탈..."2월 돼서야 복귀 가능"</t>
+          <t>'PK+퇴장 유도' 손흥민, KOM 선정..."46.5%"</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>2021.12.28 09:24</t>
+          <t>2021.12.29 09:26</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>뉴캐슬, 맨유와 1-1 무승부...에디 하우 "결과에 만족"</t>
+          <t>'PK 선방' 슈마이켈 "살라 PK? 연구 안했어, 느낌으로 뛰었다"</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>2021.12.28 09:21</t>
+          <t>2021.12.29 09:26</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>"프랑스 축구가 타락했다" 관중 난동에 흔들리는 '빅5' 리그앙 [이종성의 스포츠 문화&amp;산업]</t>
+          <t>위기의 바르셀로나, '영건' 페란 토레스 영입…메시 공백 지울까</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>2021.12.28 09:18</t>
+          <t>2021.12.29 09:23</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>맨유, '940억' 독일 특급 유망주 노린다...랑닉의 영향력 작용할까</t>
+          <t>"손흥민 영입해야 된다, 완벽한 리버풀 스타일"</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>2021.12.28 09:18</t>
+          <t>2021.12.29 09:17</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>바르사 '리빙 레전드' 코로나 양성, 5년 만의 복귀전 무산</t>
+          <t>EPL 31일 에버턴-뉴캐슬, 코로나 여파로 연기…일정 차질 계속</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>2021.12.28 09:15</t>
+          <t>2021.12.29 09:15</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>맨유, 5위 도약 실패… 뉴캐슬과 1-1 무승부</t>
+          <t>선두 경쟁 '삐끗'?… 리버풀, 레스터에 0-1 패</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>2021.12.28 09:13</t>
+          <t>2021.12.29 09:11</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>도대체 어떤 선수길래, 리버풀이 17세 유망주에 홀딱 반했나</t>
+          <t>리버풀, 레스터에 0-1로 패배… 선두 맨시티 추격 실패</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>2021.12.28 09:08</t>
+          <t>2021.12.29 09:11</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>'졸전'에 뿔난 네빌, "징징거리는 선수 투성이"</t>
+          <t>이렇게 망가질 수가... 25세 토트넘 '재능 천재' 충격 몰락 미스터리</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>2021.12.28 09:08</t>
+          <t>2021.12.29 09:09</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>황희찬, 내년 2월 복귀 ‘울버햄튼-한국 대표팀’ 전력에 차질</t>
+          <t>마라도나 가문의 비극…52세 동생 우고도 심장마비 사망</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>2021.12.28 09:08</t>
+          <t>2021.12.29 09:07</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>'카바니 동점골' 맨유, 졸전 끝에 뉴캐슬과 1-1 무승부</t>
+          <t>‘8골 손흥민 제외’ 네빌-캐러거의 EPL 베스트11, ‘4골’ 포든은 포함</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>2021.12.28 09:04</t>
+          <t>2021.12.29 09:06</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>IN-OUT 확실하네...레알, 베일-아자르-디아스 등 '방출 목표'</t>
+          <t>칠웰 '시즌 아웃'...첼시 '감독과 불화' 생긴 DF 노린다</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>2021.12.28 09:04</t>
+          <t>2021.12.29 09:05</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>EPL 코로나19 확진자 지난 1주일새 103명…역대 최다</t>
+          <t>"개선할 점 많다"… 콘테 토트넘 감독, 소튼전 아쉬움 드러내</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>2021.12.28 09:03</t>
+          <t>2021.12.29 09:00</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>"EPL 탁상행정, 말도 안돼"… 투헬 감독, 코로나19 대처에 '분노'</t>
+          <t>"경기 뛸 선수가 없어요"… 뉴캐슬, 코로나로 에버턴전 '연기'</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>2021.12.28 08:53</t>
+          <t>2021.12.29 08:58</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>'열정+디테일' 콘테표 스타일에 녹아든 토트넘, 챔스리그 복귀 노린다</t>
+          <t>동점골 견인 손흥민, 시즌 8번째 ‘킹 오브 더 매치’</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>2021.12.28 08:42</t>
+          <t>2021.12.29 08:56</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>'장기 결장 악재'… 황희찬, 햄스트링 부상 여파 내년 2월 복귀 예정</t>
+          <t>'리그 출전 0회' 마타, 스페인 복귀 할까? 레알 소시에다드 러브콜</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>2021.12.28 08:41</t>
+          <t>2021.12.29 08:53</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>EPL, 일주일 동안 선수단 103명 확진…코로나19 발생 후 최다</t>
+          <t>살라 추격하는 손흥민, 시즌 8번째 'KOTM' 선정</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>2021.12.28 08:40</t>
+          <t>2021.12.29 08:52</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>PSG 단장도 예상 못한 레알 출신 수비수의 장기 결장… “시즌 후반기가 중요”</t>
+          <t>네이션스컵 차출 앞둔 리버풀, 레스터에 0대 1 패…우승 멀어지나</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>2021.12.28 08:38</t>
+          <t>2021.12.29 08:48</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>'날벼락’ 벤투호, 황희찬 생각보다 부상 심각...사실상 '시즌아웃' 우려, 구단은 2월 복귀 ‘희망’</t>
+          <t>'살라, 역전각 나왔다' 손흥민 8번째 킹오브더매치, 살라와 1회 차이</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>2021.12.28 08:32</t>
+          <t>2021.12.29 08:45</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>"퇴장당했어야"...또 논란된 호날두, 과격한 반칙으로 '뭇매'</t>
+          <t>라리가도 코로나 비상…'이강인 소속팀' 마요르카 4명 확진</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>2021.12.28 08:29</t>
+          <t>2021.12.29 08:42</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>리버풀 레전드 "토트넘, 가공할 스리톱 보유"</t>
+          <t>'PK 양보' 손흥민, '기록 희생' 대신 토트넘 무승부 KOTM</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>2021.12.28 08:23</t>
+          <t>2021.12.29 08:41</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>맨유 졸전에 랑닉도 분노, "실수 너무 많았다...변명 여지 없어"</t>
+          <t>살라흐 PK 실축…리버풀, 레스터시티에 덜미</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>2021.12.28 08:21</t>
+          <t>2021.12.29 08:40</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>리버풀 레전드, "콘테는 다른 수준 감독.. 토트넘, 챔스도 가능"</t>
+          <t>호날두, 랑닉 감독에 대한 확신 부족</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>2021.12.28 08:18</t>
+          <t>2021.12.29 08:36</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>[공식발표] 하피냐, PSG떠나 레알 소시에다드 단기 임대</t>
+          <t>"토트넘에서 뛸 일은 없을 것 같고요" 음바페, 이적설에 답변</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>2021.12.28 08:17</t>
+          <t>2021.12.29 08:36</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>“누구를 영입해도 황인범 빠지면 재앙” 카잔 지역 매체</t>
+          <t>손흥민, 패널티킥 유도했지만…1-1 아쉬운 무승부</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>2021.12.28 08:13</t>
+          <t>2021.12.29 08:34</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>갈 길 바쁜 맨유, 아직 요원한 TOP4 진입</t>
+          <t>"호날두는 없다"...'독설가' 킨이 꼽은 '월드 클래스 동료' 5명</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>2021.12.28 08:11</t>
+          <t>2021.12.29 08:32</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>호날두, 또 '화풀이?' 뉴캐슬 선수 향해 '싸커킥'..."퇴장 피한 것 행운"</t>
+          <t>"평소 모습 아니다?"… 英풋볼런던, 손흥민에 평점 5점 부여</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>2021.12.28 08:08</t>
+          <t>2021.12.29 08:32</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>드디어 '돈값'하나...뉴캐슬 '클럽 레코드' 공격수, 미드필더로 변신해 맨유 중원 압도</t>
+          <t>'축구의 신' 마라도나 가문의 비극…동생도 52세에 심장마비로 사망</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>2021.12.28 08:08</t>
+          <t>2021.12.29 08:31</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>'햄스트링 부상' 황희찬, 한 달 이상 못 본다…소속팀·대표팀 타격 불가피</t>
+          <t>'4경기 연속 골' 손흥민, EPL 파워 랭킹 2위…PK 유도까지 추가</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>2021.12.28 08:06</t>
+          <t>2021.12.29 08:31</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>EPL, 이번주 확진자 역대 최다인 103명… 지난주 90명 기록 또 깨졌다</t>
+          <t>'코로나 확산'에 프리미어리그 에버턴-뉴캐슬전 연기</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>2021.12.28 08:06</t>
+          <t>2021.12.29 08:31</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>갈길 바쁜 맨유 발목 잡은 뉴캐슬… 1-1 무승부</t>
+          <t>네이션스컵 차출 앞둔 리버풀, 레스터에 0-1 패…우승 멀어지나</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>2021.12.28 08:04</t>
+          <t>2021.12.29 08:26</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>'다친 황소' 황희찬, 1월에는 치료에만 전념 예정</t>
+          <t>마라도나 별세 1년 만에 52세 동생 우고 심장마비로 숨져</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>2021.12.28 08:01</t>
+          <t>2021.12.29 08:21</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>'햄스트링 부상' 황희찬, 내년 2월 복귀…월드컵 최종예선 2경기 결장</t>
+          <t>'손흥민 PK 유도' 토트넘, 사우스햄튼에 1-1 무승부</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>2021.12.28 07:55</t>
+          <t>2021.12.29 08:17</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>[오피셜] 39세 바르셀로나 아우베스, 코로나 바이러스 확진</t>
+          <t>마라도나 별세 1년 만에 52세 동생 우고 심장마비로 숨져</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>2021.12.28 07:51</t>
+          <t>2021.12.29 08:14</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>황희찬 부상 이탈 ‘비상’…2월 복귀에 벤투호도 한숨</t>
+          <t>바르사 2267억 먹튀 미드필더, 1월에 아스널 이적?... ”아르테타가 이적 승인”</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>2021.12.28 07:48</t>
+          <t>2021.12.29 08:14</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>결국 해결사는 카바니...후반만 뛰고 최다 슈팅+동점골</t>
+          <t>남미로 선수 되파는 MLS, 득점왕 150억 원에 브라질 진출?</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>2021.12.28 07:48</t>
+          <t>2021.12.29 08:13</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>'졸전' 맨유 랑닉, "경기력이 전혀 마음에 들지 않았다"</t>
+          <t>토트넘 콘테 감독 "VAR 노코멘트…결과는 실망스러워"</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>2021.12.28 07:46</t>
+          <t>2021.12.29 08:12</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>울버햄턴 발표, 황희찬 햄스트링 부상으로 2월 복귀 예정</t>
+          <t>"살라 페널티킥 실축…연구는 무슨, 느낌으로 막았지"</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>2021.12.28 07:43</t>
+          <t>2021.12.29 08:12</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>‘카바니 동점골’ 맨유, 뉴캐슬과 1-1 무승부…리그 7위 유지</t>
+          <t>"첼시로 꺼져!" 패배에 화난 노리치 팬들...임대생 길모어에 분풀이</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>2021.12.28 07:43</t>
+          <t>2021.12.29 08:12</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>황희찬의 울버햄프턴, 코로나19로 아스널전 연기</t>
+          <t>한풀 꺾인 토트넘, 무시무시했던 손흥민 침투력</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>2021.12.28 07:42</t>
+          <t>2021.12.29 08:06</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>울버햄튼 황희찬, 1월에도 출전 어려워</t>
+          <t>리버풀 전현직 수비수 'SON, 리버풀에 필요한 선수'</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>2021.12.28 07:40</t>
+          <t>2021.12.29 08:02</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>‘번리전 푸스카스 골은 당연하고’ 토트넘이 꼽은 손흥민 베스트골은?</t>
+          <t>손흥민, 시즌 8번째 '킹 오브 더 매치' 살라 턱밑까지 쫓아왔다</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>2021.12.28 07:40</t>
+          <t>2021.12.29 08:02</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>[S트리밍] 뉴캐슬 하우, "비겨 실망…주엘린통 FW→MF 훌륭하다"</t>
+          <t>"심판 장난으로 보나?" 억울한 판정에 토트넘 팬들 불만 표출</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>2021.12.28 07:38</t>
+          <t>2021.12.29 08:01</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>'쓸데없는 뒷목 트래핑'…아스날 MF, 노리치전 대승에도 맹비난</t>
+          <t>손흥민, 동점골 PK 유도… 토트넘, 10명 싸운 소튼과 1-1 무승부</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>2021.12.28 07:34</t>
+          <t>2021.12.29 07:53</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>'햄스트링 부상' 황희찬, 2월 복귀 전망</t>
+          <t>'실망 가득' 다이어, "상대 10명이었는데...무너뜨렸어야"</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>2021.12.28 07:30</t>
+          <t>2021.12.29 07:52</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>[EPL리뷰]'카바니 동점골' 맨유, 뉴캐슬 원정에서 1대1 무승부</t>
+          <t>10명이 뛴 사우샘프턴과 비긴 콘테 감독 "이기지 못해서 실망스럽다"</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>2021.12.28 07:21</t>
+          <t>2021.12.29 07:49</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>'미친 반사신경' 또 맨유 구한 데 헤아, 무려 7선방으로 평점 1위</t>
+          <t>동점골 PK 유도한 손흥민, 시즌 8번째 경기 최우수선수</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>2021.12.28 07:21</t>
+          <t>2021.12.29 07:49</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>[오피셜]'포르지뉴' EPL 한해 최다 PK골 기록 깬 조르지뉴, 무려 10골</t>
+          <t>[EPL현장]손흥민 사우스햄턴전 오른쪽 햄스트링 자주 만지작...걱정되네</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>2021.12.28 07:16</t>
+          <t>2021.12.29 07:47</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>‘아스널’ 자카, ‘결혼 10주년 팬’에게 선행…‘무슨 일?’</t>
+          <t>10명 싸운 상대와 무승부... 토트넘 콘테, "수적 우위 못 살린 결과 실망스럽다"</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>2021.12.28 07:15</t>
+          <t>2021.12.29 07:46</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>보르도, 올겨울 황의조 잔류 희망…내년 여름 이적 선호</t>
+          <t>'코로나 여파'에 EPL 에버턴-뉴캐슬전 연기…"경기 뛸 선수 부족해"</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>2021.12.28 07:13</t>
+          <t>2021.12.29 07:45</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>네투 돌아오니 황희찬 아웃...울버햄튼은 '답답'</t>
+          <t>'이젠 안녕?' 레알 레전드 마르셀루, 은퇴설 제기</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>2021.12.28 07:12</t>
+          <t>2021.12.29 07:43</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>'EPL 의문의 1패' 홀란드가 선호하는 리그는 잉글랜드가 아니다</t>
+          <t>손흥민 페널티킥 유도…'무패 행진' 토트넘 무승부</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>2021.12.28 07:11</t>
+          <t>2021.12.29 07:40</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>'카바니 동점골' 맨유, 강등권 뉴캐슬과 1-1 무승부</t>
+          <t>손흥민 PK 유도…시즌 8번째 '킹 오브 더 매치' 선정</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>2021.12.28 07:09</t>
+          <t>2021.12.29 07:39</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>[공식발표] 출전 앞둔 알베스, 코로나19 확진으로 데뷔전 불투명</t>
+          <t>손흥민 EPL 5경기 연속 득점 공헌…페널티킥 획득</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>2021.12.28 07:03</t>
+          <t>2021.12.29 07:36</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>[GOAL 리뷰] ‘카바니 동점골’ 맨유, 뉴캐슬과 1-1 무…7위 유지</t>
+          <t>'맨유 수호신' 데 헤아, 올 시즌 '7.6골' 막았다!...5대 리그 1위 기록</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>2021.12.28 07:00</t>
+          <t>2021.12.29 07:35</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>[리뷰] '카바니 동점골' 맨유, '강등권' 뉴캐슬과 1-1 무승부...3연승 마감</t>
+          <t>손흥민, PK 유도로 동점골 견인...5경기 연속 득점은 무산</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>2021.12.28 07:00</t>
+          <t>2021.12.29 07:34</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>[EPL 19R] ‘카바니 골+데 헤아 선방’ 맨유, 뉴캐슬에 1-1로 진땀 무승부… 7위 유지</t>
+          <t>1골 공격수는 갈 팀이 없다… “맨유, 세비야 임대 제의 거절”</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>2021.12.28 06:59</t>
+          <t>2021.12.29 07:30</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>‘카바니 동점골’ 맨유, 뉴캐슬과 접전 끝 1-1 무승부…‘리그 7위 유지’</t>
+          <t>“승점 2를 강탈당했다!” 토트넘 팬들+전문가들, VAR 결정에 불만...로버츠 “VAR 담당자 징계해야. 정말 무능해” 질타</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>2021.12.28 06:59</t>
+          <t>2021.12.29 07:30</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>[EPL 리뷰] '카바니 동점골' 맨유, 뉴캐슬과 가까스로 1-1 무...'아쉬운 경기력'</t>
+          <t>손흥민, 동점골 PK 유도…시즌 8번째 ‘킹 오브 더 매치’</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>2021.12.28 06:59</t>
+          <t>2021.12.29 07:26</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>[S코어북] '카바니 동점골' 갈 길 바쁜 맨유, 뉴캐슬과 1-1 무승부</t>
+          <t>손흥민 5경기 연속골 무산…토트넘, 10명 뛴 사우샘프턴과 무승부</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>2021.12.28 06:59</t>
+          <t>2021.12.29 07:23</t>
         </is>
       </c>
     </row>
